--- a/biology/Zoologie/Alambadi/Alambadi.xlsx
+++ b/biology/Zoologie/Alambadi/Alambadi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'alambadi est une race bovine indienne. Elle peut aussi porter les noms de Cauvery, Kaveri ou Mahadeswarabetta.
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle appartient à la sous-espèce zébu de Bos taurus et est élevée dans l'ouest et le nord-ouest du Tamil Nadu, un état à l'extrémité sud de la péninsule indienne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle appartient à la sous-espèce zébu de Bos taurus et est élevée dans l'ouest et le nord-ouest du Tamil Nadu, un état à l'extrémité sud de la péninsule indienne.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle porte une robe grise, plus sombre chez les mâles, allant jusqu'au noir, gris à quasi blanc chez les femelles. Les cornes sont incurvées vers l'arrière[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle porte une robe grise, plus sombre chez les mâles, allant jusqu'au noir, gris à quasi blanc chez les femelles. Les cornes sont incurvées vers l'arrière.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une race dédiée exclusivement à la traction. Elle est vive mais pas très rapide une fois attelée[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une race dédiée exclusivement à la traction. Elle est vive mais pas très rapide une fois attelée.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ « Alambadi », Site « dad.fao.org » de la FAO (consulté le 18 novembre 2014)
